--- a/DE_XUAT_VAT_TU_NGHIEN_CUU_MACH_XA_PIN.xlsx
+++ b/DE_XUAT_VAT_TU_NGHIEN_CUU_MACH_XA_PIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="30690" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>&lt;20 ngày</t>
   </si>
   <si>
-    <t>Mạch in ina_board_2</t>
-  </si>
-  <si>
     <t>Trở 0603 1% 10K (50c)</t>
   </si>
   <si>
@@ -232,17 +229,20 @@
   </si>
   <si>
     <t>https://banlinhkien.com/diode-zener-12w-3.3v-smd1206-zmm3.3-10c-p16720535.html</t>
+  </si>
+  <si>
+    <t>Jump Chốt 2.0MM (10c)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/jump-chot-2.0mm-10c-p18436956.html</t>
   </si>
   <si>
     <t xml:space="preserve">- Căn cứ : ……………………………………………………………………………………………………………
 - Căn cứ: ………………………………………………………………………………………………………
- ( Đơn vị) đề xuất mua sắm…VẬT TƯ PHẦN ĐIỀU KHIỂN BỘ XẢ PIN…...trong tháng……4…………cụ thể như sau: </t>
-  </si>
-  <si>
-    <t>Jump Chốt 2.0MM (10c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/jump-chot-2.0mm-10c-p18436956.html</t>
+ ( Đơn vị) đề xuất mua sắm…VẬT TƯ PHẦN ĐIỀU KHIỂN BỘ XẢ PIN…...trong tháng……5…………cụ thể như sau: </t>
+  </si>
+  <si>
+    <t>Mạch in pcb</t>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,7 @@
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -955,11 +955,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="10">
         <v>10</v>
@@ -975,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -983,11 +983,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,11 +1011,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="10">
         <v>10</v>
@@ -1031,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,11 +1039,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="10">
         <v>10</v>
@@ -1059,7 +1059,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,11 +1067,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10">
         <v>10</v>
@@ -1087,7 +1087,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,11 +1095,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="10">
         <v>10</v>
@@ -1115,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,11 +1123,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="10">
         <v>15</v>
@@ -1143,7 +1143,7 @@
         <v>23</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1151,11 +1151,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10">
         <v>100</v>
@@ -1171,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,11 +1179,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="10">
         <v>10</v>
@@ -1199,7 +1199,7 @@
         <v>23</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,11 +1207,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="10">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,11 +1235,11 @@
         <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="10">
         <v>10</v>
@@ -1255,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,11 +1263,11 @@
         <v>12</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="10">
         <v>20</v>
@@ -1283,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
@@ -1311,7 +1311,7 @@
         <v>23</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,11 +1319,11 @@
         <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="10">
         <v>20</v>
@@ -1339,7 +1339,7 @@
         <v>23</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,11 +1347,11 @@
         <v>15</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="10">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         <v>23</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
@@ -1395,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
@@ -1423,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,11 +1431,11 @@
         <v>18</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="10">
         <v>10</v>
@@ -1451,7 +1451,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,11 +1459,11 @@
         <v>19</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="10">
         <v>15</v>
@@ -1479,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">

--- a/DE_XUAT_VAT_TU_NGHIEN_CUU_MACH_XA_PIN.xlsx
+++ b/DE_XUAT_VAT_TU_NGHIEN_CUU_MACH_XA_PIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="33480" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>TẬP ĐOÀN VDI GROUP</t>
   </si>
@@ -123,118 +123,40 @@
     <t>dây</t>
   </si>
   <si>
-    <t>Trở 0603 1% 1K 01B (50c)</t>
-  </si>
-  <si>
     <t>https://banlinhkien.com/tro-0603-1-1k-01b-50c-p6650069.html</t>
   </si>
   <si>
-    <t>Trở 5% 1W 820R (10 chiếc)</t>
-  </si>
-  <si>
     <t>túi</t>
   </si>
   <si>
-    <t>https://banlinhkien.com/tro-5-1w-820r-10-chiec-p22441584.html</t>
-  </si>
-  <si>
-    <t>Trở 5% 1W 1K (10c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/tro-5-1w-1k-10c-p19049346.html</t>
-  </si>
-  <si>
     <t>Trở 0603 5% 220R (50c)</t>
   </si>
   <si>
     <t>https://banlinhkien.com/tro-0603-5-220r-50c-p6650086.html</t>
   </si>
   <si>
-    <t>Trở 0603 5% 2K (50c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/tro-0603-5-2k-50c-p6650087.html</t>
-  </si>
-  <si>
     <t>Tụ 0603 105-1uF 50V 10% (10c)</t>
   </si>
   <si>
     <t>https://banlinhkien.com/tu-0603-1051uf-50v-10-10c-p6646055.html</t>
   </si>
   <si>
-    <t>Tụ Tantalum 105E-1uF 25V SMD3216</t>
-  </si>
-  <si>
-    <t>cá</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/tu-tantalum-105e1uf-25v-smd3216-p6650486.html</t>
-  </si>
-  <si>
-    <t>Trở 0603 5% 15K (50c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/tro-0603-5-15k-50c-p6650076.html</t>
-  </si>
-  <si>
     <t>Trở 0603 5% 330R (50c)</t>
   </si>
   <si>
     <t>https://banlinhkien.com/tro-0603-5-330r-50c-p6650096.html</t>
   </si>
   <si>
-    <t>Trở 0603 5% 4.7K (50c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/tro-0603-5-4.7k-50c-p6650090.html</t>
-  </si>
-  <si>
     <t>AO3400 SOT23-3 MOSFET N-1CH 5A 30V (A09T) (5c)</t>
   </si>
   <si>
     <t>https://banlinhkien.com/ao3400-sot233-mosfet-n1ch-5a-30v-a09t-5c-p16000513.html</t>
   </si>
   <si>
-    <t>Jump Đôi Đực 2.0MM 2x40P Thẳng</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/jump-doi-duc-2.0mm-2x40p-thang-p6649796.html</t>
-  </si>
-  <si>
-    <t>Led 3MM 2 Mầu Katot Sáng Đục (5c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/led-3mm-2-mau-katot-sang-duc-5c-p6651455.html</t>
-  </si>
-  <si>
-    <t>Led 3MM 2 Mầu Anot Siêu Sáng (5c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/search?q=led%203mm%202%20m%E1%BA%A7u</t>
-  </si>
-  <si>
-    <t>PIC12F683-I/SN SOP8</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/pic12f683isn-sop8-p6652739.html</t>
-  </si>
-  <si>
     <t>Jack XT60 Đực</t>
   </si>
   <si>
     <t>https://banlinhkien.com/jack-xt60-duc-p6650055.html</t>
-  </si>
-  <si>
-    <t>Diode Zener 1/2W 3.3V SMD1206 ZMM3.3 (10c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/diode-zener-12w-3.3v-smd1206-zmm3.3-10c-p16720535.html</t>
-  </si>
-  <si>
-    <t>Jump Chốt 2.0MM (10c)</t>
-  </si>
-  <si>
-    <t>https://banlinhkien.com/jump-chot-2.0mm-10c-p18436956.html</t>
   </si>
   <si>
     <t xml:space="preserve">- Căn cứ : ……………………………………………………………………………………………………………
@@ -243,6 +165,123 @@
   </si>
   <si>
     <t>Mạch in pcb</t>
+  </si>
+  <si>
+    <t>Nút Nhấn 2 Chân 3x4MM (5 chiếc)</t>
+  </si>
+  <si>
+    <t>LED 0603 Màu Xanh Lá ( Green) (10 chiếc)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/led-0603-mau-xanh-la-green-10-chiec-p22456389.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/nut-nhan-2-chan-3x4mm-5-chiec-p23169742.html</t>
+  </si>
+  <si>
+    <t>Tụ 0603 106-10uF 20% 16V (10c)</t>
+  </si>
+  <si>
+    <t>Diode Zener 1/2W 9.1V SMD1206 ZMM9.1 (10c)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/diode-zener-12w-9.1v-smd1206-zmm9.1-10c-p16838164.html</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tu-0603-10610uf-20-16v-10c-p6646061.html</t>
+  </si>
+  <si>
+    <t>BZT52C6V8 SOD123 Diode Zener 6.8V 500mW (WC) (10c)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/bzt52c6v8-sod123-diode-zener-6.8v-500mw-wc-10c-p16222573.html</t>
+  </si>
+  <si>
+    <t>HT7533-1 SOT89 3.3V 100mA</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/ht75331-sot89-3.3v-100ma-p12117754.html</t>
+  </si>
+  <si>
+    <t>HT7133-1 SOT89 3.3V 30mA</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/ht71331-sot89-3.3v-30ma-p6648696.html</t>
+  </si>
+  <si>
+    <t>Trở 0603 1% 1K 01B (50c)</t>
+  </si>
+  <si>
+    <t>NTC-MF58 100K 3950 5%</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/ntcmf58-100k-3950-5-p6646835.html</t>
+  </si>
+  <si>
+    <t>Trở 2512 5% 102-1K 1W (5 chiếc)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-2512-5-1021k-1w-5-chiec-p23613391.html</t>
+  </si>
+  <si>
+    <t>Trở 2512 5% 181-180R 1W (5 chiếc)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tro-2512-5-181180r-1w-5-chiec-p23613395.html</t>
+  </si>
+  <si>
+    <t>MicroUSB MK5P SMD</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/microusb-mk5p-smd-p6652832.html</t>
+  </si>
+  <si>
+    <t>Mạch Điều Khiển Servo 16 Kênh PCA9685</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/mach-dieu-khien-servo-16-kenh-pca9685-p6647447.html</t>
+  </si>
+  <si>
+    <t>TM7711 SOP8</t>
+  </si>
+  <si>
+    <t>https://linhkien888.vn/tm7711-sop8</t>
+  </si>
+  <si>
+    <t>Cảm Biến Áp Suất MPS20N0040D SOP6</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/cam-bien-ap-suat-mps20n0040d-sop6-p6652232.html</t>
+  </si>
+  <si>
+    <t>Màn Hình 2.4 Inch TFT LCD Shield</t>
+  </si>
+  <si>
+    <t>https://linhkien888.vn/man-hinh-2-4-inch-tft-lcd-shield</t>
+  </si>
+  <si>
+    <t>Module Giao Tiếp Đọc Ghi Thẻ Nhớ SD</t>
+  </si>
+  <si>
+    <t>https://linhkien888.vn/module-giao-tiep-doc-ghi-the-nho-sd</t>
+  </si>
+  <si>
+    <t>[TL] Biến Trở Dán 2.2K 3.6x3.1MM PVZ3A222C01R00 (10c)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tl-bien-tro-dan-2.2k-3.6x3.1mm-pvz3a222c01r00-10c-p12118884.html</t>
+  </si>
+  <si>
+    <t>STM8S103F3P6 TSSOP20</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/stm8s103f3p6-tssop20-p6651628.html</t>
+  </si>
+  <si>
+    <t>Tản Nhiệt LM78 15x10x20MM TC3 (Răng Lược) (5 chiếc)</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/tan-nhiet-lm78-15x10x20mm-tc3-rang-luoc-5-chiec-p23175907.html</t>
   </si>
 </sst>
 </file>
@@ -346,7 +385,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,6 +538,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -842,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +970,7 @@
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="30" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -983,14 +1046,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
@@ -1003,7 +1066,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,14 +1074,14 @@
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -1031,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,14 +1102,14 @@
         <v>4</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -1059,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,14 +1130,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -1087,7 +1150,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,14 +1158,14 @@
         <v>6</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -1115,7 +1178,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,11 +1186,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10">
         <v>15</v>
@@ -1143,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1151,14 +1214,14 @@
         <v>8</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -1171,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,11 +1242,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="10">
         <v>10</v>
@@ -1199,7 +1262,7 @@
         <v>23</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,14 +1270,14 @@
         <v>10</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
@@ -1227,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,14 +1298,14 @@
         <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E18" s="10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
@@ -1255,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,11 +1326,11 @@
         <v>12</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10">
         <v>20</v>
@@ -1283,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,14 +1354,14 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
@@ -1311,7 +1374,7 @@
         <v>23</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,14 +1382,14 @@
         <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
@@ -1339,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,14 +1410,14 @@
         <v>15</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E22" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
@@ -1367,7 +1430,7 @@
         <v>23</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,14 +1438,14 @@
         <v>16</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
@@ -1395,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,14 +1466,14 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10" t="s">
@@ -1423,7 +1486,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,14 +1494,14 @@
         <v>18</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E25" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -1451,7 +1514,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1459,14 +1522,14 @@
         <v>19</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E26" s="10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
@@ -1479,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,14 +1550,14 @@
         <v>20</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
@@ -1507,146 +1570,342 @@
         <v>23</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>21</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>22</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="10">
+        <v>50</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>23</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+      <c r="B31" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>25</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="35">
+        <v>1</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>26</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="35">
+        <v>1</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>27</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="10">
+        <v>10</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="24" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="s">
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="24" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="G44:J44"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J27" r:id="rId1"/>
-    <hyperlink ref="J8" r:id="rId2"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="J10" r:id="rId4"/>
-    <hyperlink ref="J11" r:id="rId5"/>
-    <hyperlink ref="J12" r:id="rId6"/>
-    <hyperlink ref="J13" r:id="rId7"/>
-    <hyperlink ref="J14" r:id="rId8"/>
-    <hyperlink ref="J15" r:id="rId9"/>
+    <hyperlink ref="J34" r:id="rId1"/>
+    <hyperlink ref="J14" r:id="rId2"/>
+    <hyperlink ref="J19" r:id="rId3"/>
+    <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+    <hyperlink ref="J11" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J12" r:id="rId8"/>
+    <hyperlink ref="J13" r:id="rId9"/>
     <hyperlink ref="J16" r:id="rId10"/>
-    <hyperlink ref="J17" r:id="rId11"/>
-    <hyperlink ref="J18" r:id="rId12"/>
-    <hyperlink ref="J19" r:id="rId13"/>
+    <hyperlink ref="J15" r:id="rId11"/>
+    <hyperlink ref="J17" r:id="rId12"/>
+    <hyperlink ref="J18" r:id="rId13"/>
     <hyperlink ref="J20" r:id="rId14"/>
     <hyperlink ref="J21" r:id="rId15"/>
     <hyperlink ref="J22" r:id="rId16"/>
@@ -1654,9 +1913,16 @@
     <hyperlink ref="J24" r:id="rId18"/>
     <hyperlink ref="J25" r:id="rId19"/>
     <hyperlink ref="J26" r:id="rId20"/>
+    <hyperlink ref="J27" r:id="rId21"/>
+    <hyperlink ref="J33" r:id="rId22"/>
+    <hyperlink ref="J32" r:id="rId23"/>
+    <hyperlink ref="J31" r:id="rId24"/>
+    <hyperlink ref="J28" r:id="rId25"/>
+    <hyperlink ref="J29" r:id="rId26"/>
+    <hyperlink ref="J30" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/DE_XUAT_VAT_TU_NGHIEN_CUU_MACH_XA_PIN.xlsx
+++ b/DE_XUAT_VAT_TU_NGHIEN_CUU_MACH_XA_PIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="38865" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
   <si>
     <t>TẬP ĐOÀN VDI GROUP</t>
   </si>
@@ -282,6 +282,48 @@
   </si>
   <si>
     <t>https://banlinhkien.com/tan-nhiet-lm78-15x10x20mm-tc3-rang-luoc-5-chiec-p23175907.html</t>
+  </si>
+  <si>
+    <t>lọ</t>
+  </si>
+  <si>
+    <t>Mỡ Hàn GOOT BS-10</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/mo-han-goot-bs10-p6647939.html</t>
+  </si>
+  <si>
+    <t>Bột Sắt FeCl3</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/bot-sat-fecl3-p6649556.html</t>
+  </si>
+  <si>
+    <t>Hộp Đựng Nước Rửa Mạch 100mL HS-100</t>
+  </si>
+  <si>
+    <t>https://banlinhkien.com/hop-dung-nuoc-rua-mach-100ml-hs100-p6649567.html</t>
+  </si>
+  <si>
+    <t>Module  cảm biến áp suất không khí, chất lỏng MPS20N0040D-S 0~40KPa</t>
+  </si>
+  <si>
+    <t>https://icdayroi.com/module-cam-bien-ap-suat-khong-khi-chat-long-mps20n0040d-s-0-40kpa</t>
+  </si>
+  <si>
+    <t>Bộ Kit Thu Phát 433Mhz Loại T4 Kiểu ABC Gồm Tay Phát Và Module Thu Có 3 Relay, Nguồn 12V</t>
+  </si>
+  <si>
+    <t>viên</t>
+  </si>
+  <si>
+    <t>https://linhkien888.vn/bo-kit-thu-phat-433mhz-loai-t4-kieu-abc-gom-tay-phat-va-module-thu-co-3-relay-nguon-12v</t>
+  </si>
+  <si>
+    <t>Pin GP 12V 23A</t>
+  </si>
+  <si>
+    <t>https://linhkien888.vn/pin-gp-12v-23a</t>
   </si>
 </sst>
 </file>
@@ -451,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -509,6 +551,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,24 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,62 +963,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -1662,14 +1701,14 @@
         <v>24</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
@@ -1682,63 +1721,63 @@
         <v>23</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
-        <v>25</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="35">
+      <c r="A32" s="14">
+        <v>25</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>26</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="10">
         <v>1</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>26</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="35">
-        <v>1</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>73</v>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,14 +1785,14 @@
         <v>27</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
@@ -1766,134 +1805,302 @@
         <v>23</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>28</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>29</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="24">
+        <v>1</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>30</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="24">
+        <v>1</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>31</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="24">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>32</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="24">
+        <v>1</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>33</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="10">
+        <v>100</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="24" t="s">
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="24" t="s">
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="24" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="G50:J50"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B41:J41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J34" r:id="rId1"/>
+    <hyperlink ref="J40" r:id="rId1"/>
     <hyperlink ref="J14" r:id="rId2"/>
     <hyperlink ref="J19" r:id="rId3"/>
     <hyperlink ref="J8" r:id="rId4"/>
@@ -1914,15 +2121,21 @@
     <hyperlink ref="J25" r:id="rId19"/>
     <hyperlink ref="J26" r:id="rId20"/>
     <hyperlink ref="J27" r:id="rId21"/>
-    <hyperlink ref="J33" r:id="rId22"/>
-    <hyperlink ref="J32" r:id="rId23"/>
-    <hyperlink ref="J31" r:id="rId24"/>
+    <hyperlink ref="J39" r:id="rId22"/>
+    <hyperlink ref="J38" r:id="rId23"/>
+    <hyperlink ref="J34" r:id="rId24"/>
     <hyperlink ref="J28" r:id="rId25"/>
     <hyperlink ref="J29" r:id="rId26"/>
     <hyperlink ref="J30" r:id="rId27"/>
+    <hyperlink ref="J31" r:id="rId28"/>
+    <hyperlink ref="J32" r:id="rId29"/>
+    <hyperlink ref="J33" r:id="rId30"/>
+    <hyperlink ref="J35" r:id="rId31"/>
+    <hyperlink ref="J36" r:id="rId32"/>
+    <hyperlink ref="J37" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId28"/>
-  <drawing r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId34"/>
+  <drawing r:id="rId35"/>
 </worksheet>
 </file>